--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail3 Features.xlsx
@@ -3798,7 +3798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,29 +3809,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3852,115 +3850,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3977,72 +3965,66 @@
         <v>4.197150148160686e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.686684145798087</v>
+        <v>2.942701559249409e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.895357592685635</v>
+        <v>6.863970347037961e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.942701559249409e-06</v>
+        <v>0.06682076737558161</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.863970347037961e-06</v>
+        <v>0.3573408478941964</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06682076737558161</v>
+        <v>0.1319472145229595</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3573408478941964</v>
+        <v>1.755567879814706</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1319472145229595</v>
+        <v>1.745700353310874</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.693319313848296</v>
+        <v>3.817793111936513</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.745700353310874</v>
+        <v>1.059066888310814e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.817793111936513</v>
+        <v>47623847.36517597</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.059066888310814e-14</v>
+        <v>2.429167266237726e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>47623847.36517597</v>
+        <v>24.0199636204703</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.429167266237726e-06</v>
+        <v>9.957956324469965e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>24.0199636204703</v>
+        <v>10.88310117429728</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.957956324469965e-05</v>
+        <v>1.217870045066496</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.88310117429728</v>
+        <v>0.01179439179258392</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.217870045066496</v>
+        <v>3.335512851305826</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01179439179258392</v>
+        <v>0.9510578706269321</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.335512851305826</v>
+        <v>1.688449686992085</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9510578706269321</v>
+        <v>21</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.688449686992085</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2774246018503944</v>
       </c>
     </row>
@@ -4057,72 +4039,66 @@
         <v>3.510884431291345e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.6417348282188734</v>
+        <v>2.259686950155659e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.922661200038227</v>
+        <v>6.885774263966911e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.259686950155659e-06</v>
+        <v>0.04573375094539314</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.885774263966911e-06</v>
+        <v>0.351406812980879</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04573375094539314</v>
+        <v>0.1253855352268902</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.351406812980879</v>
+        <v>1.748057859073031</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1253855352268902</v>
+        <v>1.720919380114982</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.683293275855388</v>
+        <v>3.846638339740801</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.720919380114982</v>
+        <v>1.043242949471106e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.846638339740801</v>
+        <v>48560136.45655943</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.043242949471106e-14</v>
+        <v>2.381743863674438e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>48560136.45655943</v>
+        <v>24.60057483298579</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.381743863674438e-06</v>
+        <v>0.0001025638680449025</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>24.60057483298579</v>
+        <v>9.590330836889224</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001025638680449025</v>
+        <v>1.34127315958979</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.590330836889224</v>
+        <v>0.009433254898020282</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.34127315958979</v>
+        <v>3.414737541934621</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009433254898020282</v>
+        <v>0.95185745019333</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.414737541934621</v>
+        <v>1.722456579402995</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.95185745019333</v>
+        <v>21</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.722456579402995</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2584553151382309</v>
       </c>
     </row>
@@ -4137,72 +4113,66 @@
         <v>3.198401995680013e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.004228254198150043</v>
+        <v>1.726077408148662e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.01553932513735479</v>
+        <v>6.896819746364868e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.726077408148662e-06</v>
+        <v>0.02019302935290701</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.896819746364868e-06</v>
+        <v>0.3232191495749957</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02019302935290701</v>
+        <v>0.1047357847405231</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3232191495749957</v>
+        <v>1.731259883672774</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1047357847405231</v>
+        <v>1.679662858303669</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.670615790525561</v>
+        <v>4.075439233677796</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.679662858303669</v>
+        <v>9.293928480295678e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.075439233677796</v>
+        <v>54693559.30902379</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.293928480295678e-15</v>
+        <v>2.09357171498117e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>54693559.30902379</v>
+        <v>27.80172224239344</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.09357171498117e-06</v>
+        <v>0.0001112479350930872</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>27.80172224239344</v>
+        <v>9.046232102695674</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001112479350930872</v>
+        <v>1.606031932967454</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.046232102695674</v>
+        <v>0.009103898591969122</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.606031932967454</v>
+        <v>3.477084966776941</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009103898591969122</v>
+        <v>0.952660033453524</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.477084966776941</v>
+        <v>1.724400813261689</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.952660033453524</v>
+        <v>21</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.724400813261689</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2614933042738739</v>
       </c>
     </row>
@@ -4217,72 +4187,66 @@
         <v>3.139938231863976e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1121843793197386</v>
+        <v>1.382920470561392e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.2247441089919868</v>
+        <v>6.899198373193674e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.382920470561392e-06</v>
+        <v>-0.004586421360757846</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.899198373193674e-06</v>
+        <v>0.2785465015742365</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.004586421360757846</v>
+        <v>0.07750560754865379</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2785465015742365</v>
+        <v>1.736588820568452</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07750560754865379</v>
+        <v>1.68940537916767</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.676918343296248</v>
+        <v>4.306436865540348</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.68940537916767</v>
+        <v>7.193097302650987e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.306436865540348</v>
+        <v>70559473.08380106</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.193097302650987e-15</v>
+        <v>1.628289142897238e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>70559473.08380106</v>
+        <v>35.81183650152175</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.628289142897238e-06</v>
+        <v>0.0001168896150449453</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>35.81183650152175</v>
+        <v>9.278108352166587</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001168896150449453</v>
+        <v>1.697760518488819</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.278108352166587</v>
+        <v>0.0100622431669568</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.697760518488819</v>
+        <v>3.527433165970399</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0100622431669568</v>
+        <v>0.9511717385812548</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.527433165970399</v>
+        <v>1.69537422457456</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9511717385812548</v>
+        <v>38</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.69537422457456</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2944704425263896</v>
       </c>
     </row>
@@ -4297,72 +4261,66 @@
         <v>3.219875794444814e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.02344993605487358</v>
+        <v>1.424635569147279e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.1945619708583863</v>
+        <v>6.894318354123341e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.424635569147279e-06</v>
+        <v>-0.02498604672487376</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.894318354123341e-06</v>
+        <v>0.2305411644824513</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02498604672487376</v>
+        <v>0.05371097992220862</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2305411644824513</v>
+        <v>1.756194022300294</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05371097992220862</v>
+        <v>1.865912044319645</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.702554614378243</v>
+        <v>4.43492085746777</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.865912044319645</v>
+        <v>6.782352476556718e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.43492085746777</v>
+        <v>77557503.43514866</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.782352476556718e-15</v>
+        <v>1.49937938740625e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>77557503.43514866</v>
+        <v>40.79697831684867</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.49937938740625e-06</v>
+        <v>0.0001026254650370009</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>40.79697831684867</v>
+        <v>8.947434837036818</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001026254650370009</v>
+        <v>1.576514462249685</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.947434837036818</v>
+        <v>0.00821584479475653</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.576514462249685</v>
+        <v>3.595712819744286</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00821584479475653</v>
+        <v>0.9512302850673297</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.595712819744286</v>
+        <v>1.686267555059934</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9512302850673297</v>
+        <v>38</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.686267555059934</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.326281541000192</v>
       </c>
     </row>
@@ -4377,72 +4335,66 @@
         <v>3.348299471813905e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.05043469825124801</v>
+        <v>1.464230558329545e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.2473195960068346</v>
+        <v>6.883467669207563e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.464230558329545e-06</v>
+        <v>-0.04032185923347974</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.883467669207563e-06</v>
+        <v>0.1897353568381442</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04032185923347974</v>
+        <v>0.03758193682310657</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1897353568381442</v>
+        <v>1.7691510987705</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03758193682310657</v>
+        <v>1.690066190345323</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.721056885562322</v>
+        <v>4.73525577721237</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.690066190345323</v>
+        <v>5.94929109488754e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.73525577721237</v>
+        <v>88296262.25854442</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.94929109488754e-15</v>
+        <v>1.319613849911702e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>88296262.25854442</v>
+        <v>46.38204128928198</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.319613849911702e-06</v>
+        <v>0.0001009663537324249</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>46.38204128928198</v>
+        <v>9.509641907756926</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001009663537324249</v>
+        <v>1.204138856051084</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.509641907756926</v>
+        <v>0.009130719467943861</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.204138856051084</v>
+        <v>3.357299297267827</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009130719467943861</v>
+        <v>0.9524465410332287</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.357299297267827</v>
+        <v>1.717089555821009</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9524465410332287</v>
+        <v>38</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.717089555821009</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3338881704182846</v>
       </c>
     </row>
@@ -4457,72 +4409,66 @@
         <v>3.470958963682627e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.08166554704374709</v>
+        <v>1.501231250923996e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.2794927846046185</v>
+        <v>6.867444128555955e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.501231250923996e-06</v>
+        <v>-0.05310793583319629</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.867444128555955e-06</v>
+        <v>0.1519664410942652</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05310793583319629</v>
+        <v>0.02588174230832042</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1519664410942652</v>
+        <v>1.82980916892936</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02588174230832042</v>
+        <v>1.823727826985848</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.80288686584618</v>
+        <v>3.887645514923715</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.823727826985848</v>
+        <v>5.175429283159311e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.887645514923715</v>
+        <v>99644844.45481975</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.175429283159311e-15</v>
+        <v>1.187689074625267e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>99644844.45481975</v>
+        <v>51.38732915503257</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.187689074625267e-06</v>
+        <v>0.0001264689241323624</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>51.38732915503257</v>
+        <v>9.356700408220714</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001264689241323624</v>
+        <v>1.279372445369031</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.356700408220714</v>
+        <v>0.01107208145477711</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.279372445369031</v>
+        <v>3.252032097082036</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01107208145477711</v>
+        <v>0.9556584649698708</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.252032097082036</v>
+        <v>1.576287363066963</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9556584649698708</v>
+        <v>37</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.576287363066963</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2913757639183411</v>
       </c>
     </row>
@@ -4537,72 +4483,66 @@
         <v>3.554297117130815e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.1119727818722459</v>
+        <v>1.535517349382661e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.2541909858126905</v>
+        <v>6.846828917239771e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.535517349382661e-06</v>
+        <v>-0.06355237783500345</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.846828917239771e-06</v>
+        <v>0.1211857177073447</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.06355237783500345</v>
+        <v>0.01870720725354495</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1211857177073447</v>
+        <v>1.834733789215915</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01870720725354495</v>
+        <v>1.851567995080585</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.805590244825367</v>
+        <v>4.114054857119113</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.851567995080585</v>
+        <v>3.552765584462601e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.114054857119113</v>
+        <v>141797442.1772304</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.552765584462601e-15</v>
+        <v>8.357600231973407e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>141797442.1772304</v>
+        <v>71.43373312281464</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.357600231973407e-07</v>
+        <v>0.000156720114722674</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>71.43373312281464</v>
+        <v>9.588435633293301</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000156720114722674</v>
+        <v>1.358897648437243</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.588435633293301</v>
+        <v>0.01440854924930214</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.358897648437243</v>
+        <v>3.080333060697999</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01440854924930214</v>
+        <v>0.9570379024117907</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.080333060697999</v>
+        <v>1.600009170147979</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9570379024117907</v>
+        <v>37</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.600009170147979</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2965989769381723</v>
       </c>
     </row>
@@ -4617,72 +4557,66 @@
         <v>3.584579848061098e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.190714724132213</v>
+        <v>1.566899667008907e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.2506235179709702</v>
+        <v>6.822591957461642e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.566899667008907e-06</v>
+        <v>-0.07142769288650959</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.822591957461642e-06</v>
+        <v>0.1021849580780799</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.07142769288650959</v>
+        <v>0.01553948134503884</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1021849580780799</v>
+        <v>1.848500137085298</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01553948134503884</v>
+        <v>2.012227014578134</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.834656252046866</v>
+        <v>4.456283590800497</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.012227014578134</v>
+        <v>3.028036236801643e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.456283590800497</v>
+        <v>161539481.1679268</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.028036236801643e-15</v>
+        <v>7.337365668908182e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>161539481.1679268</v>
+        <v>79.01661763881999</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.337365668908182e-07</v>
+        <v>0.0001564477731139299</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>79.01661763881999</v>
+        <v>9.339309996364564</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001564477731139299</v>
+        <v>1.36470131344886</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.339309996364564</v>
+        <v>0.01364579893348153</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.36470131344886</v>
+        <v>3.094707392525266</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01364579893348153</v>
+        <v>0.9573223134928852</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.094707392525266</v>
+        <v>1.574321595903268</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9573223134928852</v>
+        <v>31</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.574321595903268</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3551606461314091</v>
       </c>
     </row>
@@ -4697,72 +4631,66 @@
         <v>3.577083687223078e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.32669791638287</v>
+        <v>1.588086340109094e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.3442322551825683</v>
+        <v>6.796358861596501e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.588086340109094e-06</v>
+        <v>-0.0739959066935387</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.796358861596501e-06</v>
+        <v>0.09981827544515899</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.0739959066935387</v>
+        <v>0.01543864882093166</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09981827544515899</v>
+        <v>1.85956090606376</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01543864882093166</v>
+        <v>1.815063925875431</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.859568591540548</v>
+        <v>5.025701167067433</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.815063925875431</v>
+        <v>2.270816720631093e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.025701167067433</v>
+        <v>194995371.1162843</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.270816720631093e-15</v>
+        <v>6.043525891486212e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>194995371.1162843</v>
+        <v>86.34370642550272</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.043525891486212e-07</v>
+        <v>0.0001202208916163164</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>86.34370642550272</v>
+        <v>8.668884904653943</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001202208916163164</v>
+        <v>1.255126385478083</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.668884904653943</v>
+        <v>0.009034547767803033</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.255126385478083</v>
+        <v>3.239323823917736</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009034547767803033</v>
+        <v>0.9565729638699861</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.239323823917736</v>
+        <v>1.508064103772328</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9565729638699861</v>
+        <v>29</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.508064103772328</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.4381988073917459</v>
       </c>
     </row>
@@ -4777,72 +4705,66 @@
         <v>3.57118511042242e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.4631159096421196</v>
+        <v>1.54449440750417e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.4756485822823779</v>
+        <v>6.770184257196318e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.54449440750417e-06</v>
+        <v>-0.07209267773169885</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.770184257196318e-06</v>
+        <v>0.09862968394294343</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.07209267773169885</v>
+        <v>0.0149215128227178</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.09862968394294343</v>
+        <v>1.873241138661131</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0149215128227178</v>
+        <v>2.286251719390377</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.88801185931434</v>
+        <v>4.865503717097447</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.286251719390377</v>
+        <v>1.230751058953133e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.865503717097447</v>
+        <v>353349467.6385288</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.230751058953133e-15</v>
+        <v>3.347158253058245e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>353349467.6385288</v>
+        <v>153.666465026131</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.347158253058245e-07</v>
+        <v>0.000108902726848549</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>153.666465026131</v>
+        <v>7.577971058553826</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000108902726848549</v>
+        <v>1.297284110934986</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.577971058553826</v>
+        <v>0.00625380937120776</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.297284110934986</v>
+        <v>3.339087047405286</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.00625380937120776</v>
+        <v>0.9571756984599927</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.339087047405286</v>
+        <v>1.415835060969409</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9571756984599927</v>
+        <v>35</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.415835060969409</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.4374880750826374</v>
       </c>
     </row>
@@ -4857,72 +4779,66 @@
         <v>3.586194974892526e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.560636365621932</v>
+        <v>1.475879434799867e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.5879113472989905</v>
+        <v>6.745005922292984e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.475879434799867e-06</v>
+        <v>-0.0686036916136417</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.745005922292984e-06</v>
+        <v>0.09505674245825395</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0686036916136417</v>
+        <v>0.0137379596439501</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09505674245825395</v>
+        <v>1.876708414181058</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.0137379596439501</v>
+        <v>2.192655052457531</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.891227548143783</v>
+        <v>4.862714633186912</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.192655052457531</v>
+        <v>1.232163295806359e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.862714633186912</v>
+        <v>361479510.3177236</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.232163295806359e-15</v>
+        <v>3.281731948815837e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>361479510.3177236</v>
+        <v>161.0036190639833</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.281731948815837e-07</v>
+        <v>0.0001063454457303862</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>161.0036190639833</v>
+        <v>6.819487330622589</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001063454457303862</v>
+        <v>1.385560282540834</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.819487330622589</v>
+        <v>0.004945638284411678</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.385560282540834</v>
+        <v>3.451622801793093</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.004945638284411678</v>
+        <v>0.9578024854593855</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.451622801793093</v>
+        <v>1.43970450379097</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9578024854593855</v>
+        <v>70</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.43970450379097</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.4489727436661199</v>
       </c>
     </row>
@@ -4937,72 +4853,66 @@
         <v>3.623688824709163e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.6144741041733641</v>
+        <v>1.408831605686904e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.6768512510996607</v>
+        <v>6.72097670868442e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.408831605686904e-06</v>
+        <v>-0.06480869643840839</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.72097670868442e-06</v>
+        <v>0.09092906583045622</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06480869643840839</v>
+        <v>0.01246481125204807</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.09092906583045622</v>
+        <v>1.872364439752291</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01246481125204807</v>
+        <v>2.050814877292721</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.889615335781397</v>
+        <v>4.898426001324861</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.050814877292721</v>
+        <v>1.214262916941502e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.898426001324861</v>
+        <v>365630678.3433454</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.214262916941502e-15</v>
+        <v>3.236326129031954e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>365630678.3433454</v>
+        <v>162.3297008960228</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.236326129031954e-07</v>
+        <v>0.000111166049669706</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>162.3297008960228</v>
+        <v>7.117473349038182</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000111166049669706</v>
+        <v>1.49904697396071</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.117473349038182</v>
+        <v>0.005631497198094132</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.49904697396071</v>
+        <v>3.51906226174788</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.005631497198094132</v>
+        <v>0.958889257705053</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.51906226174788</v>
+        <v>1.391021628096222</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.958889257705053</v>
+        <v>70</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.391021628096222</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.5576738995112034</v>
       </c>
     </row>
@@ -5017,72 +4927,66 @@
         <v>3.67893326352428e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.6332793766308654</v>
+        <v>1.351616016628377e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7534660572197578</v>
+        <v>6.6979891711207e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.351616016628377e-06</v>
+        <v>-0.06124077526273913</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.6979891711207e-06</v>
+        <v>0.08730557551209565</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06124077526273913</v>
+        <v>0.01137046740185888</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08730557551209565</v>
+        <v>1.87065194668912</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01137046740185888</v>
+        <v>2.022565706544537</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.887563918508274</v>
+        <v>5.101200997691357</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.022565706544537</v>
+        <v>1.119646594700685e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.101200997691357</v>
+        <v>405784545.7846332</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.119646594700685e-15</v>
+        <v>2.922210833871654e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>405784545.7846332</v>
+        <v>184.3622372048759</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.922210833871654e-07</v>
+        <v>0.0001248554745906854</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>184.3622372048759</v>
+        <v>9.715021508700092</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001248554745906854</v>
+        <v>1.228024400787807</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.715021508700092</v>
+        <v>0.01178406481873917</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.228024400787807</v>
+        <v>3.476615417888061</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01178406481873917</v>
+        <v>0.9596878308138118</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.476615417888061</v>
+        <v>1.427248920382919</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9596878308138118</v>
+        <v>70</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.427248920382919</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.9444739137541047</v>
       </c>
     </row>
@@ -5097,72 +5001,66 @@
         <v>3.745562813655213e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.6278906466544224</v>
+        <v>1.308331127616761e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.8264378101313103</v>
+        <v>6.675845391763403e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.308331127616761e-06</v>
+        <v>-0.05822166539891408</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.675845391763403e-06</v>
+        <v>0.08457423412124843</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05822166539891408</v>
+        <v>0.01054156043219518</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08457423412124843</v>
+        <v>1.873387534906199</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01054156043219518</v>
+        <v>2.000078992176724</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.890124527596005</v>
+        <v>5.348419674246073</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.000078992176724</v>
+        <v>9.847741936355847e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.348419674246073</v>
+        <v>478327478.4500039</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.847741936355847e-16</v>
+        <v>2.496258648734124e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>478327478.4500039</v>
+        <v>225.3135551320882</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.496258648734124e-07</v>
+        <v>0.0001468412891429828</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>225.3135551320882</v>
+        <v>12.17655453233001</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001468412891429828</v>
+        <v>1.030226033651638</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.17655453233001</v>
+        <v>0.02177193478341087</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.030226033651638</v>
+        <v>3.38973475279973</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02177193478341087</v>
+        <v>0.960728393156978</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.38973475279973</v>
+        <v>1.415657144938129</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.960728393156978</v>
+        <v>70</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.415657144938129</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.596328167893654</v>
       </c>
     </row>
@@ -5177,72 +5075,66 @@
         <v>3.816928991857897e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.6076739800678957</v>
+        <v>1.283305253639372e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.8994783241892472</v>
+        <v>6.654277024354774e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.283305253639372e-06</v>
+        <v>-0.05603555071480911</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.654277024354774e-06</v>
+        <v>0.0827161684271831</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05603555071480911</v>
+        <v>0.009981916930232048</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.0827161684271831</v>
+        <v>1.891460134909734</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.009981916930232048</v>
+        <v>2.290299568811823</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.920449982504705</v>
+        <v>5.016852476874468</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.290299568811823</v>
+        <v>9.499724093869011e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.016852476874468</v>
+        <v>497827282.3135457</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>9.499724093869011e-16</v>
+        <v>2.405286205082291e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>497827282.3135457</v>
+        <v>235.4335650279975</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.405286205082291e-07</v>
+        <v>0.0001731848585497077</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>235.4335650279975</v>
+        <v>9.49373206455112</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001731848585497077</v>
+        <v>1.690265421396539</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.49373206455112</v>
+        <v>0.01560931556925907</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.690265421396539</v>
+        <v>3.608084060586268</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01560931556925907</v>
+        <v>0.9615935011336321</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.608084060586268</v>
+        <v>1.18339124656903</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9615935011336321</v>
+        <v>69</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.18339124656903</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.630398227483637</v>
       </c>
     </row>
@@ -5257,72 +5149,66 @@
         <v>3.886266408983841e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.579659737446519</v>
+        <v>1.274292686302228e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9734748212114961</v>
+        <v>6.632966665002422e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.274292686302228e-06</v>
+        <v>-0.05464738309175955</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.632966665002422e-06</v>
+        <v>0.08130089704308315</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05464738309175955</v>
+        <v>0.009596327723316544</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.08130089704308315</v>
+        <v>1.903315170700568</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.009596327723316544</v>
+        <v>2.105771331937687</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.936626873232097</v>
+        <v>7.063516598124946</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.105771331937687</v>
+        <v>3.941132065391493e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>7.063516598124946</v>
+        <v>1189585276.096755</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.941132065391493e-16</v>
+        <v>1.008491565640098e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1189585276.096755</v>
+        <v>557.7147729276904</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.008491565640098e-07</v>
+        <v>0.0001556114235143513</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>557.7147729276904</v>
+        <v>8.535893658604349</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001556114235143513</v>
+        <v>1.792436487928727</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.535893658604349</v>
+        <v>0.01133807870790464</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.792436487928727</v>
+        <v>3.855408157108986</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01133807870790464</v>
+        <v>0.9607276618199357</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.855408157108986</v>
+        <v>1.164670713192619</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9607276618199357</v>
+        <v>69</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.164670713192619</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>2.018355484604891</v>
       </c>
     </row>
@@ -5337,72 +5223,66 @@
         <v>3.950854569331441e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.5456529774704023</v>
+        <v>1.257097770192373e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.047933931668213</v>
+        <v>6.611895682102543e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.257097770192373e-06</v>
+        <v>-0.05275490751835599</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.611895682102543e-06</v>
+        <v>0.08006502663117548</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05275490751835599</v>
+        <v>0.009193295321669773</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.08006502663117548</v>
+        <v>1.917234494569382</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.009193295321669773</v>
+        <v>2.439077551784774</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.945891297303159</v>
+        <v>5.790462781079121</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.439077551784774</v>
+        <v>2.997107156430841e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.790462781079121</v>
+        <v>1523491553.346593</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.997107156430841e-16</v>
+        <v>7.947861937305831e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1523491553.346593</v>
+        <v>695.6365172732923</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>7.947861937305831e-08</v>
+        <v>0.0001555206546441367</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>695.6365172732923</v>
+        <v>10.11261507586049</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001555206546441367</v>
+        <v>1.386002517012119</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.11261507586049</v>
+        <v>0.01590431720792239</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.386002517012119</v>
+        <v>3.860155583002085</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01590431720792239</v>
+        <v>0.9577137558446647</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.860155583002085</v>
+        <v>1.040389008527469</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9577137558446647</v>
+        <v>69</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.040389008527469</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>2.329003085606743</v>
       </c>
     </row>
@@ -5417,72 +5297,66 @@
         <v>4.01163902540369e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.5039243285413271</v>
+        <v>1.257501140583384e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.121702355664722</v>
+        <v>6.591368040677186e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.257501140583384e-06</v>
+        <v>-0.05033130768469567</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.591368040677186e-06</v>
+        <v>0.07899156835497476</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05033130768469567</v>
+        <v>0.00877272431140807</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.07899156835497476</v>
+        <v>1.914383556105748</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.00877272431140807</v>
+        <v>2.341492736558296</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.94746424159404</v>
+        <v>5.821525883707128</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.341492736558296</v>
+        <v>4.802203021149279e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.821525883707128</v>
+        <v>948042369.0666904</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.802203021149279e-16</v>
+        <v>1.275725383251007e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>948042369.0666904</v>
+        <v>431.6144841914239</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.275725383251007e-07</v>
+        <v>0.0001519907315180072</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>431.6144841914239</v>
+        <v>11.97947402850532</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001519907315180072</v>
+        <v>1.150646583014644</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.97947402850532</v>
+        <v>0.02181185519650271</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.150646583014644</v>
+        <v>3.845284663735216</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.02181185519650271</v>
+        <v>0.9583157265244989</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.845284663735216</v>
+        <v>1.056916755952352</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9583157265244989</v>
+        <v>52</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.056916755952352</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>2.542291174165296</v>
       </c>
     </row>
@@ -5497,72 +5371,66 @@
         <v>4.066468047928175e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.4550619509834981</v>
+        <v>1.257501140583384e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.193831283156528</v>
+        <v>6.571518767172235e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.257501140583384e-06</v>
+        <v>-0.04794012423643062</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.571518767172235e-06</v>
+        <v>0.07851375877170604</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04794012423643062</v>
+        <v>0.008462521768839226</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.07851375877170604</v>
+        <v>1.906020579939238</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.008462521768839226</v>
+        <v>2.217102449489857</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.940951245202559</v>
+        <v>5.291243029881944</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.217102449489857</v>
+        <v>9.170723001937609e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.291243029881944</v>
+        <v>473896674.8495749</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>9.170723001937609e-16</v>
+        <v>2.527083893308269e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>473896674.8495749</v>
+        <v>205.9543166206437</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.527083893308269e-07</v>
+        <v>0.0001488262874212395</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>205.9543166206437</v>
+        <v>12.42130989417046</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001488262874212395</v>
+        <v>1.088404774193507</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>12.42130989417046</v>
+        <v>0.02296225005401302</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.088404774193507</v>
+        <v>3.67570325628864</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02296225005401302</v>
+        <v>0.9588125219944941</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.67570325628864</v>
+        <v>1.073123442029725</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9588125219944941</v>
+        <v>52</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.073123442029725</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>2.160452155613847</v>
       </c>
     </row>
@@ -5577,72 +5445,66 @@
         <v>4.112304648599075e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.4000584853157701</v>
+        <v>1.257501140583384e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.262747263700849</v>
+        <v>6.552467621897463e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.257501140583384e-06</v>
+        <v>-0.04512650714171292</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.552467621897463e-06</v>
+        <v>0.07858765285705741</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04512650714171292</v>
+        <v>0.008211901613345247</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.07858765285705741</v>
+        <v>1.873208792327678</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.008211901613345247</v>
+        <v>2.244477579261897</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.891846125377026</v>
+        <v>4.883909856786527</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.244477579261897</v>
+        <v>1.105577477934924e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.883909856786527</v>
+        <v>391892182.2239017</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.105577477934924e-15</v>
+        <v>3.034910224190891e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>391892182.2239017</v>
+        <v>169.7940169118681</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.034910224190891e-07</v>
+        <v>0.0001574057816419189</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>169.7940169118681</v>
+        <v>12.43573972418266</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001574057816419189</v>
+        <v>1.03136607935761</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>12.43573972418266</v>
+        <v>0.02434242989672737</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.03136607935761</v>
+        <v>3.317954527615023</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02434242989672737</v>
+        <v>0.9572658285241664</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.317954527615023</v>
+        <v>1.282299032586486</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9572658285241664</v>
+        <v>57</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.282299032586486</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>1.570977605491794</v>
       </c>
     </row>
@@ -5657,72 +5519,66 @@
         <v>4.15013752265687e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.3397453309990999</v>
+        <v>1.257501140583384e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.325298766346919</v>
+        <v>6.534406425612145e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.257501140583384e-06</v>
+        <v>-0.04241794710968819</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.534406425612145e-06</v>
+        <v>0.07862349316554323</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04241794710968819</v>
+        <v>0.007980703410976906</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.07862349316554323</v>
+        <v>1.863096468124489</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.007980703410976906</v>
+        <v>2.111740136799567</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.869281531129211</v>
+        <v>5.498905686104724</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.111740136799567</v>
+        <v>1.976021913788304e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.498905686104724</v>
+        <v>220412102.0263459</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.976021913788304e-15</v>
+        <v>5.396333215287463e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>220412102.0263459</v>
+        <v>95.99809817066331</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>5.396333215287463e-07</v>
+        <v>0.00018486587413568</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>95.99809817066331</v>
+        <v>9.495900896113305</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.00018486587413568</v>
+        <v>1.551922060492336</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.495900896113305</v>
+        <v>0.01666975034294164</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.551922060492336</v>
+        <v>3.224167773209389</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01666975034294164</v>
+        <v>0.9580591105156913</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.224167773209389</v>
+        <v>1.505672910259531</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9580591105156913</v>
+        <v>57</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.505672910259531</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.8542648772665629</v>
       </c>
     </row>
@@ -5737,72 +5593,66 @@
         <v>4.18134234895892e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.276673724546133</v>
+        <v>1.257501140583384e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.378441332377846</v>
+        <v>6.517127671360388e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.257501140583384e-06</v>
+        <v>-0.04071325934004931</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.517127671360388e-06</v>
+        <v>0.07858263741647017</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04071325934004931</v>
+        <v>0.007832938472716334</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.07858263741647017</v>
+        <v>1.849286854685525</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.007832938472716334</v>
+        <v>2.039303648801123</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.84486603916951</v>
+        <v>4.950982560063743</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.039303648801123</v>
+        <v>2.626669422397239e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.950982560063743</v>
+        <v>171536578.0259683</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.626669422397239e-15</v>
+        <v>6.92160102750194e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>171536578.0259683</v>
+        <v>77.28921611840427</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.92160102750194e-07</v>
+        <v>0.0001712115106133403</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>77.28921611840427</v>
+        <v>8.540649864161727</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001712115106133403</v>
+        <v>1.734987161851925</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.540649864161727</v>
+        <v>0.0124886298727145</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.734987161851925</v>
+        <v>3.18863380853709</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0124886298727145</v>
+        <v>0.9584332782928987</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.18863380853709</v>
+        <v>1.477667522212907</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9584332782928987</v>
+        <v>57</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.477667522212907</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.472031876494559</v>
       </c>
     </row>
@@ -6179,7 +6029,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.416398859815958</v>
+        <v>1.396517435276394</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.013073762077353</v>
@@ -6268,7 +6118,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.411523676695219</v>
+        <v>1.388060739301815</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.994734718345921</v>
@@ -6357,7 +6207,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.411196527188237</v>
+        <v>1.384404213594056</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.96591678369349</v>
@@ -6446,7 +6296,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.417659546519568</v>
+        <v>1.389560922105779</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.980292640674401</v>
@@ -6535,7 +6385,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.450021474010728</v>
+        <v>1.428331861165604</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.707235897368095</v>
@@ -6624,7 +6474,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.492809632483554</v>
+        <v>1.475302087550924</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.862976054892095</v>
@@ -6713,7 +6563,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.512033869530489</v>
+        <v>1.498218212852723</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.970312743113243</v>
@@ -6802,7 +6652,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.495643815503504</v>
+        <v>1.463588545568233</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.041175815053535</v>
@@ -6891,7 +6741,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.439890825927093</v>
+        <v>1.435163746083358</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.043342190071267</v>
@@ -6980,7 +6830,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.447870018686633</v>
+        <v>1.438956623046425</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.047769279150659</v>
@@ -7069,7 +6919,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.443478497286764</v>
+        <v>1.431973715931967</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.03105913230793</v>
@@ -7158,7 +7008,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.439938591445615</v>
+        <v>1.426817200756842</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.036516620515846</v>
@@ -7247,7 +7097,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.441370845328475</v>
+        <v>1.426428509177819</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.026236978839952</v>
@@ -7336,7 +7186,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.443839534138097</v>
+        <v>1.424406405587941</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.029626512510654</v>
@@ -7425,7 +7275,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.389427863628703</v>
+        <v>1.383414586303916</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.09562797610109</v>
@@ -7514,7 +7364,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.382711238868137</v>
+        <v>1.381170532388545</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.122747785671613</v>
@@ -7603,7 +7453,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.395058405304296</v>
+        <v>1.396740493724907</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.111314592004807</v>
@@ -7692,7 +7542,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.399482241860262</v>
+        <v>1.402408633335522</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.170716962298265</v>
@@ -7781,7 +7631,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.380640199751746</v>
+        <v>1.381450041366871</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.174295287412121</v>
@@ -7870,7 +7720,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.384831534564083</v>
+        <v>1.390597964703812</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.923572124531655</v>
@@ -7959,7 +7809,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.397914007919484</v>
+        <v>1.401119340321252</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.207341989179886</v>
@@ -8048,7 +7898,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.397377900017416</v>
+        <v>1.404365158116494</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.301626368045447</v>
@@ -8137,7 +7987,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.429603081504406</v>
+        <v>1.440194659588282</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.999322676061315</v>
@@ -8226,7 +8076,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.439800256237904</v>
+        <v>1.447808712807523</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.210828344467042</v>
@@ -8315,7 +8165,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.439013618392608</v>
+        <v>1.450603602830425</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.210942097205661</v>
@@ -8404,7 +8254,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.41376038921331</v>
+        <v>1.426911753722578</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.264308215594475</v>
@@ -8493,7 +8343,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.404958403646735</v>
+        <v>1.422196182468016</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.248667069013975</v>
@@ -8582,7 +8432,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.404667000978336</v>
+        <v>1.424302641490043</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.259139412073815</v>
@@ -8671,7 +8521,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.4200429944337</v>
+        <v>1.44006704048542</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.000146304437751</v>
@@ -8760,7 +8610,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.466033788123777</v>
+        <v>1.479266319940929</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.017687389168845</v>
@@ -8849,7 +8699,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.468458684173601</v>
+        <v>1.482131193360444</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.187668038176815</v>
@@ -8938,7 +8788,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.460872172515121</v>
+        <v>1.470193138838162</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.135444786768344</v>
@@ -9027,7 +8877,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.456483892709108</v>
+        <v>1.460574961723673</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.122202035988288</v>
@@ -9116,7 +8966,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.503416487107604</v>
+        <v>1.496810844391618</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.315174084329918</v>
@@ -9205,7 +9055,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.506521181562156</v>
+        <v>1.496001302089761</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.131764798512017</v>
@@ -9294,7 +9144,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.529824949268911</v>
+        <v>1.507293258225856</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.313901924862183</v>
@@ -9383,7 +9233,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.541879430343994</v>
+        <v>1.507016390939012</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.175990056718495</v>
@@ -9472,7 +9322,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.515994704727625</v>
+        <v>1.481154724696865</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.25427812114781</v>
@@ -9561,7 +9411,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.517424062699646</v>
+        <v>1.484267348614985</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.301116773849272</v>
@@ -9650,7 +9500,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.528457847187827</v>
+        <v>1.491318145267784</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.22198538270511</v>
@@ -9739,7 +9589,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.606520334447538</v>
+        <v>1.55164185687602</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.333431764135055</v>
@@ -9828,7 +9678,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.639316153928661</v>
+        <v>1.573661790423638</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.710993115023057</v>
@@ -9917,7 +9767,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.631901234840371</v>
+        <v>1.554965843394083</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.668098317221741</v>
@@ -10006,7 +9856,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.596820015116359</v>
+        <v>1.528699082211966</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.769529915649874</v>
@@ -10095,7 +9945,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.580674199900868</v>
+        <v>1.526382041911607</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.780793490077726</v>
@@ -10184,7 +10034,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.582565977835849</v>
+        <v>1.533412432828236</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.832452981176023</v>
@@ -10273,7 +10123,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.587923114226918</v>
+        <v>1.543274024163477</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.860497042139845</v>
@@ -10362,7 +10212,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.594108011632548</v>
+        <v>1.555939140486888</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.830858468680061</v>
@@ -10451,7 +10301,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.602898966274642</v>
+        <v>1.564410152429243</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.829129193769603</v>
@@ -10540,7 +10390,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.599650759425563</v>
+        <v>1.567934834078793</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.779442401216322</v>
@@ -10629,7 +10479,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.614691731208563</v>
+        <v>1.589003588977651</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.770674324093438</v>
@@ -10718,7 +10568,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.642981863851842</v>
+        <v>1.617164662287547</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.372958878095663</v>
@@ -10807,7 +10657,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.675973068219877</v>
+        <v>1.64950303055791</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.921547014114521</v>
@@ -10896,7 +10746,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.672929998794437</v>
+        <v>1.646163497575651</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.951156478711882</v>
@@ -10985,7 +10835,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.668628684674436</v>
+        <v>1.642644290631361</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.94044231791882</v>
@@ -11074,7 +10924,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.677824184960749</v>
+        <v>1.654654416451325</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.967966639631427</v>
@@ -11163,7 +11013,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.678355781464193</v>
+        <v>1.653560461256473</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.915619853014757</v>
@@ -11252,7 +11102,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.697441084503338</v>
+        <v>1.673784445815977</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.964271042357831</v>
@@ -11341,7 +11191,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.737715280895309</v>
+        <v>1.699974972743383</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.8929931383299</v>
@@ -11430,7 +11280,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.76577994604095</v>
+        <v>1.71072670814691</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.974240472585774</v>
@@ -11519,7 +11369,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.764397122298609</v>
+        <v>1.707952437341465</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.021528130820003</v>
@@ -11608,7 +11458,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.726326026159946</v>
+        <v>1.676027515684918</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.120156262589001</v>
@@ -11697,7 +11547,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.728628691329509</v>
+        <v>1.669253951714984</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.845039964519141</v>
@@ -11786,7 +11636,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.752179937733151</v>
+        <v>1.676894159134878</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.197827923627046</v>
@@ -11875,7 +11725,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.759492070692997</v>
+        <v>1.68017128248258</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.132697257811214</v>
@@ -11964,7 +11814,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.745964557287742</v>
+        <v>1.670516346140533</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.033384188777137</v>
@@ -12053,7 +11903,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.721022520391602</v>
+        <v>1.65144048566845</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.781821946453716</v>
@@ -12142,7 +11992,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.724149884696125</v>
+        <v>1.648383565548138</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.154872465881034</v>
@@ -12428,7 +12278,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.580264716918059</v>
+        <v>1.534159401126993</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.82254534283441</v>
@@ -12517,7 +12367,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.581662301422815</v>
+        <v>1.531540029023001</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.718411896949845</v>
@@ -12606,7 +12456,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.577905083020861</v>
+        <v>1.520234480048618</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.784955826888166</v>
@@ -12695,7 +12545,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.578879551467623</v>
+        <v>1.519495364855687</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.397808193639653</v>
@@ -12784,7 +12634,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.578138473569415</v>
+        <v>1.536639802918414</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.424815828333416</v>
@@ -12873,7 +12723,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.562751047066376</v>
+        <v>1.520463906693824</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.38657953389196</v>
@@ -12962,7 +12812,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.575899601705126</v>
+        <v>1.523085540764819</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.398635185390487</v>
@@ -13051,7 +12901,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.583086227158108</v>
+        <v>1.531415049033493</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.444620966611469</v>
@@ -13140,7 +12990,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.596720005639213</v>
+        <v>1.544706301663194</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.287547365406592</v>
@@ -13229,7 +13079,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.612579792120121</v>
+        <v>1.552649516567717</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.426259159305674</v>
@@ -13318,7 +13168,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.614002799577559</v>
+        <v>1.536841528612895</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.341905403507798</v>
@@ -13407,7 +13257,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.610492492815316</v>
+        <v>1.532547270546635</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.381078014992251</v>
@@ -13496,7 +13346,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.606069875380538</v>
+        <v>1.529078112761624</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.427483466411002</v>
@@ -13585,7 +13435,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.614317778854138</v>
+        <v>1.542842169869455</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.479823959504847</v>
@@ -13674,7 +13524,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.611369888608844</v>
+        <v>1.549865847578459</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.434469739107051</v>
@@ -13763,7 +13613,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.582477766030404</v>
+        <v>1.533881998023956</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.619872989681049</v>
@@ -13852,7 +13702,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.580480831159723</v>
+        <v>1.53681338382536</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.563998050534331</v>
@@ -13941,7 +13791,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.575739313910945</v>
+        <v>1.528911207669384</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.534699152725747</v>
@@ -14030,7 +13880,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.591840714787787</v>
+        <v>1.541725326968505</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.566237977538947</v>
@@ -14119,7 +13969,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.597540832195774</v>
+        <v>1.546253292132461</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.175200101193904</v>
@@ -14208,7 +14058,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.581253740837911</v>
+        <v>1.53096048786379</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.365266745082884</v>
@@ -14297,7 +14147,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.572829878698253</v>
+        <v>1.531706227504562</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.511187245942811</v>
@@ -14386,7 +14236,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.563349247396455</v>
+        <v>1.5271601338937</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.515997850191596</v>
@@ -14475,7 +14325,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.560333553854261</v>
+        <v>1.521981028695385</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.490014254167775</v>
@@ -14564,7 +14414,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.557840151048803</v>
+        <v>1.517014675275874</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.530953553698712</v>
@@ -14653,7 +14503,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.514306874356524</v>
+        <v>1.492114445064918</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.550969233991629</v>
@@ -14742,7 +14592,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.506491496505812</v>
+        <v>1.487156192550996</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.53706724133679</v>
@@ -14831,7 +14681,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.511336605016145</v>
+        <v>1.494055932144301</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.557046575120404</v>
@@ -14920,7 +14770,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.513141257033798</v>
+        <v>1.491627245274161</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.521092037831978</v>
@@ -15009,7 +14859,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.512213236124973</v>
+        <v>1.485083889475547</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.092705084477572</v>
@@ -15098,7 +14948,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.520289909972286</v>
+        <v>1.494295894501023</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.450188046212324</v>
@@ -15187,7 +15037,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.524746755333907</v>
+        <v>1.498608812438889</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.458127941662914</v>
@@ -15276,7 +15126,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.527309460015248</v>
+        <v>1.502809414559341</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.382570461350314</v>
@@ -15365,7 +15215,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.524004755416079</v>
+        <v>1.502516861761421</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.337314134841905</v>
@@ -15454,7 +15304,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.526284931203053</v>
+        <v>1.492543631445967</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.35506713185391</v>
@@ -15543,7 +15393,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.55585127436001</v>
+        <v>1.507052802744086</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.433716694581034</v>
@@ -15632,7 +15482,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.541760417970063</v>
+        <v>1.48580787904287</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.214133681702857</v>
@@ -15721,7 +15571,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.518796484387682</v>
+        <v>1.465313275413146</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.310216512699925</v>
@@ -15810,7 +15660,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.516890232130979</v>
+        <v>1.467111464056977</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.363258242209082</v>
@@ -15899,7 +15749,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.526362894842536</v>
+        <v>1.479589049622328</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.245836320899805</v>
@@ -15988,7 +15838,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.592033551752499</v>
+        <v>1.527066041268554</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.272244531965367</v>
@@ -16077,7 +15927,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.611526365404732</v>
+        <v>1.544837490239005</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.570939507871549</v>
@@ -16166,7 +16016,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.598847817718215</v>
+        <v>1.52663045021391</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.579319896676139</v>
@@ -16255,7 +16105,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.60235603136494</v>
+        <v>1.536956608063217</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.591531737036084</v>
@@ -16344,7 +16194,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.607125701105169</v>
+        <v>1.545124344359011</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.581120641389529</v>
@@ -16433,7 +16283,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.601119616532919</v>
+        <v>1.539883336536334</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.54793061504508</v>
@@ -16522,7 +16372,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.595937237282731</v>
+        <v>1.535535424044848</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.593697683026174</v>
@@ -16611,7 +16461,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.596256632348349</v>
+        <v>1.53827188374673</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.561121563757204</v>
@@ -16700,7 +16550,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601723544901717</v>
+        <v>1.539818867221504</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.337956049436975</v>
@@ -16789,7 +16639,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.617136700865816</v>
+        <v>1.568699342270938</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.326971253450058</v>
@@ -16878,7 +16728,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.632244216001561</v>
+        <v>1.591118089826075</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.371187566022196</v>
@@ -16967,7 +16817,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.716397507557111</v>
+        <v>1.663496129454206</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.657944098926141</v>
@@ -17056,7 +16906,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.743413007829844</v>
+        <v>1.681198901695584</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.918417401735795</v>
@@ -17145,7 +16995,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.746694501388948</v>
+        <v>1.677627923276407</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.188188707813043</v>
@@ -17234,7 +17084,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.739606235768951</v>
+        <v>1.670687036169223</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.216965176688634</v>
@@ -17323,7 +17173,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.739730530297553</v>
+        <v>1.671657319958081</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.234463845639793</v>
@@ -17412,7 +17262,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.740065590311607</v>
+        <v>1.669824614940052</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.295463291879881</v>
@@ -17501,7 +17351,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.756281984191816</v>
+        <v>1.683410604072928</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.233796307065777</v>
@@ -17590,7 +17440,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.744304874330638</v>
+        <v>1.658225745665125</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.268107925878504</v>
@@ -17679,7 +17529,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.738918174094235</v>
+        <v>1.646444736599925</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.166868548380957</v>
@@ -17768,7 +17618,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.7454052682378</v>
+        <v>1.64411125466591</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.38015516608187</v>
@@ -17857,7 +17707,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.73982271103418</v>
+        <v>1.637784058189594</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.7603140511016</v>
@@ -17946,7 +17796,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.745000510492589</v>
+        <v>1.640290278976185</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.077083001306467</v>
@@ -18035,7 +17885,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.747973304715875</v>
+        <v>1.631411597704918</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.478756282506</v>
@@ -18124,7 +17974,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.742259211647512</v>
+        <v>1.612566089628014</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.066867102200527</v>
@@ -18213,7 +18063,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.740406068164706</v>
+        <v>1.614158406640581</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.742546893214911</v>
@@ -18302,7 +18152,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.676660467647969</v>
+        <v>1.569384119476634</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.574724169602573</v>
@@ -18391,7 +18241,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.674337630890873</v>
+        <v>1.565545953731599</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.549873915264485</v>
@@ -18677,7 +18527,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.647377538730659</v>
+        <v>1.551238732603456</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.933378342002743</v>
@@ -18766,7 +18616,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.640073045063321</v>
+        <v>1.541112993975449</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.058876144311746</v>
@@ -18855,7 +18705,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.631702150816221</v>
+        <v>1.530191730636729</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.797489730378028</v>
@@ -18944,7 +18794,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.641759598860303</v>
+        <v>1.536356010245306</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.882375178145199</v>
@@ -19033,7 +18883,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.64821111605055</v>
+        <v>1.561123830707457</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.623881285738523</v>
@@ -19122,7 +18972,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.610843799908732</v>
+        <v>1.548976677608479</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.56064409603046</v>
@@ -19211,7 +19061,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.625962165688537</v>
+        <v>1.550728954438813</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.810151772816448</v>
@@ -19300,7 +19150,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.637770835973455</v>
+        <v>1.57248470524957</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.741832338151466</v>
@@ -19389,7 +19239,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.651803140646567</v>
+        <v>1.580774147971055</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.72817644517021</v>
@@ -19478,7 +19328,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660574925286997</v>
+        <v>1.57882224909811</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.954772700036312</v>
@@ -19567,7 +19417,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.662874552086085</v>
+        <v>1.570852014633882</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.939472316747713</v>
@@ -19656,7 +19506,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.66611448301358</v>
+        <v>1.57374949977284</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.740875615457361</v>
@@ -19745,7 +19595,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.664236887470657</v>
+        <v>1.567917614968929</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.865233398780539</v>
@@ -19834,7 +19684,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.669192051150923</v>
+        <v>1.573840199433888</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.610622721378397</v>
@@ -19923,7 +19773,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.668906178709631</v>
+        <v>1.587392040581565</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.702277281190317</v>
@@ -20012,7 +19862,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.649103323058718</v>
+        <v>1.583944334875415</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.725759722669893</v>
@@ -20101,7 +19951,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.64697971424118</v>
+        <v>1.589514415628781</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.819292614654324</v>
@@ -20190,7 +20040,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.650315225359687</v>
+        <v>1.585365121532618</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.863519537221551</v>
@@ -20279,7 +20129,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.64809080111454</v>
+        <v>1.584541375251115</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.820726231566178</v>
@@ -20368,7 +20218,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655345280768143</v>
+        <v>1.588786316377183</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.690228667786724</v>
@@ -20457,7 +20307,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.62254659601947</v>
+        <v>1.56771385145603</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.248432690359246</v>
@@ -20546,7 +20396,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.628305217854365</v>
+        <v>1.586870261966108</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.354757907635141</v>
@@ -20635,7 +20485,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.618587538857286</v>
+        <v>1.581316293804947</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.310243070151216</v>
@@ -20724,7 +20574,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.617238989709149</v>
+        <v>1.580054869931496</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.31750665067656</v>
@@ -20813,7 +20663,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.613031972532034</v>
+        <v>1.580611924962946</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.336340310464402</v>
@@ -20902,7 +20752,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.573700568130552</v>
+        <v>1.555279233208055</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.405299129599591</v>
@@ -20991,7 +20841,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.571263959587251</v>
+        <v>1.555461186178839</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.418153469799081</v>
@@ -21080,7 +20930,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.574979361516723</v>
+        <v>1.563879337520045</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.412947868973192</v>
@@ -21169,7 +21019,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.578952820861015</v>
+        <v>1.5658815566393</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.328798698646943</v>
@@ -21258,7 +21108,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.574871026955618</v>
+        <v>1.556727600104273</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.166757458839721</v>
@@ -21347,7 +21197,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.573174884210098</v>
+        <v>1.552586469945562</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.298600885550513</v>
@@ -21436,7 +21286,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.568889007083687</v>
+        <v>1.549094006279645</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.244547938942377</v>
@@ -21525,7 +21375,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.565353723557254</v>
+        <v>1.54414850025678</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.281044840218799</v>
@@ -21614,7 +21464,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.562742372094731</v>
+        <v>1.541228812833467</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.240676930090979</v>
@@ -21703,7 +21553,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.565029010786206</v>
+        <v>1.539026874362511</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.180203607410653</v>
@@ -21792,7 +21642,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.610211018118038</v>
+        <v>1.558616087727304</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.347935732157054</v>
@@ -21881,7 +21731,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.577199043594942</v>
+        <v>1.504436992589991</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.084407147407147</v>
@@ -21970,7 +21820,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.534085156452565</v>
+        <v>1.480279805375476</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.147343896414213</v>
@@ -22059,7 +21909,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.531018242205504</v>
+        <v>1.480560333737718</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.16874044483855</v>
@@ -22148,7 +21998,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.537920325558474</v>
+        <v>1.483759860416891</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.236633835977967</v>
@@ -22237,7 +22087,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.603885575323654</v>
+        <v>1.523744145206992</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.22059376922552</v>
@@ -22326,7 +22176,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.607938230843174</v>
+        <v>1.522252480999092</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.111853457269653</v>
@@ -22415,7 +22265,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.605553222360398</v>
+        <v>1.506722367414382</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.120800458878075</v>
@@ -22504,7 +22354,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.607141638132383</v>
+        <v>1.50817046636922</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.111917156851696</v>
@@ -22593,7 +22443,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.609872372194766</v>
+        <v>1.515372068152315</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.123074201598924</v>
@@ -22682,7 +22532,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.601896461003607</v>
+        <v>1.51235685200013</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.197285080480608</v>
@@ -22771,7 +22621,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.611558328742059</v>
+        <v>1.518225852511992</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.137518318525999</v>
@@ -22860,7 +22710,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.614669746303164</v>
+        <v>1.530836131246859</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.15684981721042</v>
@@ -22949,7 +22799,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.621558439078815</v>
+        <v>1.539938976888348</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.186650983881866</v>
@@ -23038,7 +22888,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.624326632338225</v>
+        <v>1.546189208669855</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.198317565487962</v>
@@ -23127,7 +22977,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.634225654930999</v>
+        <v>1.563810044670938</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.156897778217208</v>
@@ -23216,7 +23066,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.718109037129813</v>
+        <v>1.61901766931832</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.276208155047373</v>
@@ -23305,7 +23155,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.743546437910305</v>
+        <v>1.631695179004994</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.495539887609653</v>
@@ -23394,7 +23244,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.738302577669258</v>
+        <v>1.621745294686814</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.489456500196547</v>
@@ -23483,7 +23333,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.738572078861118</v>
+        <v>1.615746250632195</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.165857153113649</v>
@@ -23572,7 +23422,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.744747219756207</v>
+        <v>1.625877344077543</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.433577482715033</v>
@@ -23661,7 +23511,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.74758219539919</v>
+        <v>1.62988941008118</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.051632519083425</v>
@@ -23750,7 +23600,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.745341417564687</v>
+        <v>1.63138916994595</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.299258863624353</v>
@@ -23839,7 +23689,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.747819861736675</v>
+        <v>1.632069864995211</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.972035043345601</v>
@@ -23928,7 +23778,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.754954188115141</v>
+        <v>1.632642265885839</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.297071464847105</v>
@@ -24017,7 +23867,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.755005134274346</v>
+        <v>1.628394133658898</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.27435502615375</v>
@@ -24106,7 +23956,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.749534404593348</v>
+        <v>1.620739478143648</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.397007719871971</v>
@@ -24195,7 +24045,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.737701396783359</v>
+        <v>1.599389610606708</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.90339206973629</v>
@@ -24284,7 +24134,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.723924824779469</v>
+        <v>1.586203778612609</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.86251213722631</v>
@@ -24373,7 +24223,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.714788087110436</v>
+        <v>1.562486938606494</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.110821760642827</v>
@@ -24462,7 +24312,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.709769675352744</v>
+        <v>1.557725711393052</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.495030107394253</v>
@@ -24551,7 +24401,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.694813674445028</v>
+        <v>1.548438393176254</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.272596895725398</v>
@@ -24640,7 +24490,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.694573550538342</v>
+        <v>1.550630312426943</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.626547199363777</v>
@@ -24926,7 +24776,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.569119710553569</v>
+        <v>1.430142040263703</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.796197520480038</v>
@@ -25015,7 +24865,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.564613782877063</v>
+        <v>1.4275791960386</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.8710546529809</v>
@@ -25104,7 +24954,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.565774721517626</v>
+        <v>1.427896590811881</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.637052397429839</v>
@@ -25193,7 +25043,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.572889335448034</v>
+        <v>1.431823307588983</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.55606210101504</v>
@@ -25282,7 +25132,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.574616960802978</v>
+        <v>1.45310848960712</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.45956822846341</v>
@@ -25371,7 +25221,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.554894972688567</v>
+        <v>1.444888298451455</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.585409760120034</v>
@@ -25460,7 +25310,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.581700103102372</v>
+        <v>1.458586187595629</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.412684778513513</v>
@@ -25549,7 +25399,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.59090929354718</v>
+        <v>1.472598737415842</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.831834346327234</v>
@@ -25638,7 +25488,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.590185520548483</v>
+        <v>1.468601354630396</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.710074339196516</v>
@@ -25727,7 +25577,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.607139155751728</v>
+        <v>1.475516202280234</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.899286743111821</v>
@@ -25816,7 +25666,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.615571444503414</v>
+        <v>1.468146918145267</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.959560862787004</v>
@@ -25905,7 +25755,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.617871348532839</v>
+        <v>1.466326052924457</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.78127955396302</v>
@@ -25994,7 +25844,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.613974844009696</v>
+        <v>1.459361866181182</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.971126690585282</v>
@@ -26083,7 +25933,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.625663209483571</v>
+        <v>1.474588131418672</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.66606161591902</v>
@@ -26172,7 +26022,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.597227895224197</v>
+        <v>1.472745939172355</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.482479741102289</v>
@@ -26261,7 +26111,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.577583750966339</v>
+        <v>1.477680724238882</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.531038196303289</v>
@@ -26350,7 +26200,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.601158564144445</v>
+        <v>1.505629418371826</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.610214841062685</v>
@@ -26439,7 +26289,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.598756732142607</v>
+        <v>1.502351655087107</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.642218331035931</v>
@@ -26528,7 +26378,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.615752603772061</v>
+        <v>1.514579640953099</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.604863460680929</v>
@@ -26617,7 +26467,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.631489109159443</v>
+        <v>1.531030237393898</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.404693216418312</v>
@@ -26706,7 +26556,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.599432054465665</v>
+        <v>1.513367877565306</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.383864773637639</v>
@@ -26795,7 +26645,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.594712981878786</v>
+        <v>1.521650937729658</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.481987752988317</v>
@@ -26884,7 +26734,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.591820566534554</v>
+        <v>1.516641217785742</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.382565466398215</v>
@@ -26973,7 +26823,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.592470790306003</v>
+        <v>1.512847916078055</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.482914199913086</v>
@@ -27062,7 +26912,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.592442066731367</v>
+        <v>1.516677662164803</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.54813033274017</v>
@@ -27151,7 +27001,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.572804498343423</v>
+        <v>1.516775579153131</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.542764312536678</v>
@@ -27240,7 +27090,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.567959216708924</v>
+        <v>1.513448216972827</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.644052429729727</v>
@@ -27329,7 +27179,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.570467799295253</v>
+        <v>1.519235349208053</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.562224402892475</v>
@@ -27418,7 +27268,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.573951637983966</v>
+        <v>1.523388162889781</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.462041325452077</v>
@@ -27507,7 +27357,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.590485805146066</v>
+        <v>1.527649111520892</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.30035291313123</v>
@@ -27596,7 +27446,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.594571666593347</v>
+        <v>1.524932166262946</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.412897166710697</v>
@@ -27685,7 +27535,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.569747570669967</v>
+        <v>1.497943420753285</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.368925711583774</v>
@@ -27774,7 +27624,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.568252998687101</v>
+        <v>1.495989288801894</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.387805633112399</v>
@@ -27863,7 +27713,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.556012952125748</v>
+        <v>1.486915799424942</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.297546364925027</v>
@@ -27952,7 +27802,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.55592633911499</v>
+        <v>1.470546543100914</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.206099599484297</v>
@@ -28041,7 +27891,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.589033868430048</v>
+        <v>1.474904376315661</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.416237124353253</v>
@@ -28130,7 +27980,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.559140294018165</v>
+        <v>1.42465725389334</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.053898478042543</v>
@@ -28219,7 +28069,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.512737352023994</v>
+        <v>1.40462751546647</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.142916245809992</v>
@@ -28308,7 +28158,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.507020668399582</v>
+        <v>1.4101357301397</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.08719785093886</v>
@@ -28397,7 +28247,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.509067663838827</v>
+        <v>1.407325315623679</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.127798363832754</v>
@@ -28486,7 +28336,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.527181210038185</v>
+        <v>1.402481071261393</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.068033625131783</v>
@@ -28575,7 +28425,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.53059115504781</v>
+        <v>1.40960016206341</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.998834012091897</v>
@@ -28664,7 +28514,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.525890095493649</v>
+        <v>1.400829206303823</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.004693367920453</v>
@@ -28753,7 +28603,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.52854145728211</v>
+        <v>1.40756862757951</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.024599689763854</v>
@@ -28842,7 +28692,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.540283871644781</v>
+        <v>1.42144401232327</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.006632759202256</v>
@@ -28931,7 +28781,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.5335986428695</v>
+        <v>1.424724694463954</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.0267092702964</v>
@@ -29020,7 +28870,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.544147367687725</v>
+        <v>1.428690988889175</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.055404614350366</v>
@@ -29109,7 +28959,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.538096974896588</v>
+        <v>1.427016307692581</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.06681473251847</v>
@@ -29198,7 +29048,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.542376512369488</v>
+        <v>1.429433973876743</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.075903639934071</v>
@@ -29287,7 +29137,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.536445312068295</v>
+        <v>1.433504016742365</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.028874054670073</v>
@@ -29376,7 +29226,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.548412050943187</v>
+        <v>1.453654027359575</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.009729721948071</v>
@@ -29465,7 +29315,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.635943249619488</v>
+        <v>1.510619301113604</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.09426480510994</v>
@@ -29554,7 +29404,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.662226084231085</v>
+        <v>1.524860258465895</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.743549492076157</v>
@@ -29643,7 +29493,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.648180815580439</v>
+        <v>1.513522019619114</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.756911884182199</v>
@@ -29732,7 +29582,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.63964589821637</v>
+        <v>1.509032668508645</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.685420143886254</v>
@@ -29821,7 +29671,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.645811997773046</v>
+        <v>1.517557666645842</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.790706248460653</v>
@@ -29910,7 +29760,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.647374255457914</v>
+        <v>1.513207147902163</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.628753494061213</v>
@@ -29999,7 +29849,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.64838274219472</v>
+        <v>1.51843718104161</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.80603409807789</v>
@@ -30088,7 +29938,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.640977259262915</v>
+        <v>1.501274212992605</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.470937441900044</v>
@@ -30177,7 +30027,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.635499298289008</v>
+        <v>1.483878292248646</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.575900561689064</v>
@@ -30266,7 +30116,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.632982498154797</v>
+        <v>1.474556676315189</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.269137975829005</v>
@@ -30355,7 +30205,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.625628930781933</v>
+        <v>1.46765791162045</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.101765924201813</v>
@@ -30444,7 +30294,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.627882393383556</v>
+        <v>1.460099022974785</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.014342988542384</v>
@@ -30533,7 +30383,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.615681949477794</v>
+        <v>1.443140807538339</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.982070519429402</v>
@@ -30622,7 +30472,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.62002949744982</v>
+        <v>1.437401781214519</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.445731324208646</v>
@@ -30711,7 +30561,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.619522900956148</v>
+        <v>1.442285692074955</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.383069541088557</v>
@@ -30800,7 +30650,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.601418874056494</v>
+        <v>1.428878618337813</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.27075466568104</v>
@@ -30889,7 +30739,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.599320590817618</v>
+        <v>1.435773672382284</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.307058689991152</v>
@@ -31175,7 +31025,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.505253441297618</v>
+        <v>1.421006675617798</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.09289752871423</v>
@@ -31264,7 +31114,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.510132426417435</v>
+        <v>1.425495341132875</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.045835069593481</v>
@@ -31353,7 +31203,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.508983385355008</v>
+        <v>1.423856349932164</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.088198621953827</v>
@@ -31442,7 +31292,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.546363781321671</v>
+        <v>1.455961498701717</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.922596609556825</v>
@@ -31531,7 +31381,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.56491477921178</v>
+        <v>1.481068830180072</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.447190752901005</v>
@@ -31620,7 +31470,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.545244622668327</v>
+        <v>1.47087677705045</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.528048950904309</v>
@@ -31709,7 +31559,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.554411826156016</v>
+        <v>1.47991213220924</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.490131986712137</v>
@@ -31798,7 +31648,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.562006536573442</v>
+        <v>1.500239817715625</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.635829751627264</v>
@@ -31887,7 +31737,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.560717047638104</v>
+        <v>1.499355358995997</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.49058950112786</v>
@@ -31976,7 +31826,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.573696006591752</v>
+        <v>1.512580323332992</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.7470934094454</v>
@@ -32065,7 +31915,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.581160864251203</v>
+        <v>1.510339194594428</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.636127906841689</v>
@@ -32154,7 +32004,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.580524262893312</v>
+        <v>1.507534107165513</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.714447988292803</v>
@@ -32243,7 +32093,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.573458134075826</v>
+        <v>1.496894810575798</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.670591328274329</v>
@@ -32332,7 +32182,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.575521145734382</v>
+        <v>1.497080956162897</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.714368040711345</v>
@@ -32421,7 +32271,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.506619406894099</v>
+        <v>1.427616910287371</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.473369474367587</v>
@@ -32510,7 +32360,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.377506021412536</v>
+        <v>1.348119316605798</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.533969207686824</v>
@@ -32599,7 +32449,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.383077652182164</v>
+        <v>1.357497808881524</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.545807042569359</v>
@@ -32688,7 +32538,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.392073960795732</v>
+        <v>1.364381020150465</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.555084832743995</v>
@@ -32777,7 +32627,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.405893211068214</v>
+        <v>1.37847460789729</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.581279917921034</v>
@@ -32866,7 +32716,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.389797962971338</v>
+        <v>1.357068159275264</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.570279950812967</v>
@@ -32955,7 +32805,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.265489994969507</v>
+        <v>1.234520441573405</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.502681525943958</v>
@@ -33044,7 +32894,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.262007224033126</v>
+        <v>1.236253513134077</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.543504352169862</v>
@@ -33133,7 +32983,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.243651166668929</v>
+        <v>1.218095927800772</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.545355061279925</v>
@@ -33222,7 +33072,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.243178406973869</v>
+        <v>1.21723091396212</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.549669018148933</v>
@@ -33311,7 +33161,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.237865232145575</v>
+        <v>1.211374386022072</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.551647595129413</v>
@@ -33400,7 +33250,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.21001914932016</v>
+        <v>1.185731991892224</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.608835682257664</v>
@@ -33489,7 +33339,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.203703282845593</v>
+        <v>1.182444429210639</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.613390162964258</v>
@@ -33578,7 +33428,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.203839615982275</v>
+        <v>1.18335527195053</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.615814916369387</v>
@@ -33667,7 +33517,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.204687052074994</v>
+        <v>1.184021857655966</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.621094138517957</v>
@@ -33756,7 +33606,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.230467670425162</v>
+        <v>1.204344360020943</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.478356979008496</v>
@@ -33845,7 +33695,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.214114054019312</v>
+        <v>1.190349908318271</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.567239514791457</v>
@@ -33934,7 +33784,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.207233687686874</v>
+        <v>1.182194892927769</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.556044259222133</v>
@@ -34023,7 +33873,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.203372663259866</v>
+        <v>1.177202447186039</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.550329987279087</v>
@@ -34112,7 +33962,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.200959604580849</v>
+        <v>1.175592662837533</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.54273191456415</v>
@@ -34201,7 +34051,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.204146198722688</v>
+        <v>1.180405459991696</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.524873600003949</v>
@@ -34290,7 +34140,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.267541952722282</v>
+        <v>1.251306070856463</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.73742487003544</v>
@@ -34379,7 +34229,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.285120918858457</v>
+        <v>1.256271699186615</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.65646823724879</v>
@@ -34468,7 +34318,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.271504232667714</v>
+        <v>1.251146549017993</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.717381224084651</v>
@@ -34557,7 +34407,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.270977288369513</v>
+        <v>1.251757490127422</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.726532992334736</v>
@@ -34646,7 +34496,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.285750374264553</v>
+        <v>1.264573101369543</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.631977530782182</v>
@@ -34735,7 +34585,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.43714317908679</v>
+        <v>1.40080822450801</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.751090918910144</v>
@@ -34824,7 +34674,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.475502107510588</v>
+        <v>1.42934332894989</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.08568790693556</v>
@@ -34913,7 +34763,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.474571231599273</v>
+        <v>1.422575490860656</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.062673244125537</v>
@@ -35002,7 +34852,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.468977069835539</v>
+        <v>1.418641732700913</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.069857489699975</v>
@@ -35091,7 +34941,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.463523951015177</v>
+        <v>1.412146222383856</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.057044361485668</v>
@@ -35180,7 +35030,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.41949425744607</v>
+        <v>1.380538222613561</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.095952142593684</v>
@@ -35269,7 +35119,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.421546153084661</v>
+        <v>1.385484027746654</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.121619505466394</v>
@@ -35358,7 +35208,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.421195666509912</v>
+        <v>1.386005253503566</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.099416130479117</v>
@@ -35447,7 +35297,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.423856715264523</v>
+        <v>1.382536783225978</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.948069935654944</v>
@@ -35536,7 +35386,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.430244357570088</v>
+        <v>1.389480657155839</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.02249804542903</v>
@@ -35625,7 +35475,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.431417603693322</v>
+        <v>1.395435761487261</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.920516509396452</v>
@@ -35714,7 +35564,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.497892663858216</v>
+        <v>1.450347019744563</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.836112915730478</v>
@@ -35803,7 +35653,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.57107390366991</v>
+        <v>1.508106923517316</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.9884572744983</v>
@@ -35892,7 +35742,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.566535877610667</v>
+        <v>1.505068781072947</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.061178544695149</v>
@@ -35981,7 +35831,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.56078678066942</v>
+        <v>1.495124827263167</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.057769319904845</v>
@@ -36070,7 +35920,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.557920521814013</v>
+        <v>1.496110700970869</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.059636884431028</v>
@@ -36159,7 +36009,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.554118697232777</v>
+        <v>1.493755308451723</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.037263565661679</v>
@@ -36248,7 +36098,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.557738592181495</v>
+        <v>1.500990164702646</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.022314294194266</v>
@@ -36337,7 +36187,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.552443686140235</v>
+        <v>1.494315638475329</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.013450787145007</v>
@@ -36426,7 +36276,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.572814853838383</v>
+        <v>1.503490966538198</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.901930984685869</v>
@@ -36515,7 +36365,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.649127130934634</v>
+        <v>1.560643870396826</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.632880969386692</v>
@@ -36604,7 +36454,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.647442325183275</v>
+        <v>1.549563252673841</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.625852108161683</v>
@@ -36693,7 +36543,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.63988330272364</v>
+        <v>1.539552187174021</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.539183814150451</v>
@@ -36782,7 +36632,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.646543620993503</v>
+        <v>1.532692820265372</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.592546861890079</v>
@@ -36871,7 +36721,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.642056175162754</v>
+        <v>1.520406357950016</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.673791620420369</v>
@@ -36960,7 +36810,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.676784719227064</v>
+        <v>1.525490058249316</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.024514799360571</v>
@@ -37049,7 +36899,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.585628365298282</v>
+        <v>1.473176898444912</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.025807847045692</v>
@@ -37138,7 +36988,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.578163981612452</v>
+        <v>1.4642606525017</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.037283813521009</v>
@@ -37424,7 +37274,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.474166059472094</v>
+        <v>1.410857951968099</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.572556693308931</v>
@@ -37513,7 +37363,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.458064344496789</v>
+        <v>1.388623700543411</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.51787848597444</v>
@@ -37602,7 +37452,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.465094795588737</v>
+        <v>1.395339742744684</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.296044774472492</v>
@@ -37691,7 +37541,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.478399728626051</v>
+        <v>1.406000605931209</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.26052878085057</v>
@@ -37780,7 +37630,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.46655589507105</v>
+        <v>1.410516096566469</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.457518953606242</v>
@@ -37869,7 +37719,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.437002501516143</v>
+        <v>1.393125608909696</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.360136715059916</v>
@@ -37958,7 +37808,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.44470424336612</v>
+        <v>1.39896488198446</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.340615391271894</v>
@@ -38047,7 +37897,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.433760208422511</v>
+        <v>1.394575818225283</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.209742016285058</v>
@@ -38136,7 +37986,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.459577471966254</v>
+        <v>1.415871761350946</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.368139638562073</v>
@@ -38225,7 +38075,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.482770233509609</v>
+        <v>1.437215380568013</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.325630284411803</v>
@@ -38314,7 +38164,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.492075249669546</v>
+        <v>1.43710091849091</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.365772863617992</v>
@@ -38403,7 +38253,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.497378198860999</v>
+        <v>1.443004169130666</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.4472841233436</v>
@@ -38492,7 +38342,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.49430231642302</v>
+        <v>1.43793767956908</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.476852563292312</v>
@@ -38581,7 +38431,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.502581690983845</v>
+        <v>1.444119878910829</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.508158279775002</v>
@@ -38670,7 +38520,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.504061551969987</v>
+        <v>1.468170688703456</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.510177149816989</v>
@@ -38759,7 +38609,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.48957032203939</v>
+        <v>1.460132303577122</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.517556315964249</v>
@@ -38848,7 +38698,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.520675624663395</v>
+        <v>1.496427487493663</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.519567880945316</v>
@@ -38937,7 +38787,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.529497349570768</v>
+        <v>1.507761124998916</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.673932829532266</v>
@@ -39026,7 +38876,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.554247678317541</v>
+        <v>1.531798722667113</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.675936717571578</v>
@@ -39115,7 +38965,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.566054790945379</v>
+        <v>1.544794452187754</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.684686063950673</v>
@@ -39204,7 +39054,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.556088997023535</v>
+        <v>1.537528203151718</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.591823002960733</v>
@@ -39293,7 +39143,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.556741822244163</v>
+        <v>1.540788302914446</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.691796593949804</v>
@@ -39382,7 +39232,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.571743723423879</v>
+        <v>1.555997309753089</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.640769168921958</v>
@@ -39471,7 +39321,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.578779439954215</v>
+        <v>1.560506515673472</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.618467963197519</v>
@@ -39560,7 +39410,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.579690847613856</v>
+        <v>1.561164260937944</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.597203707514878</v>
@@ -39649,7 +39499,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.571031276615838</v>
+        <v>1.561024993571424</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.670820077206189</v>
@@ -39738,7 +39588,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.554498615127531</v>
+        <v>1.548438540414313</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.624607395255331</v>
@@ -39827,7 +39677,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.556213614743707</v>
+        <v>1.553896018163168</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.670885524343397</v>
@@ -39916,7 +39766,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.562525000638384</v>
+        <v>1.560830534182465</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.567815065135669</v>
@@ -40005,7 +39855,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.574068146155944</v>
+        <v>1.561714045432864</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.545032513174804</v>
@@ -40094,7 +39944,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.580395504245081</v>
+        <v>1.566932133752243</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.436940999166115</v>
@@ -40183,7 +40033,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.568874031213941</v>
+        <v>1.550585666511036</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.523384504003923</v>
@@ -40272,7 +40122,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.560806581107822</v>
+        <v>1.538824433803494</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.461316474609617</v>
@@ -40361,7 +40211,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.558129213316334</v>
+        <v>1.52628072813319</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.077152442527388</v>
@@ -40450,7 +40300,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.564393237548922</v>
+        <v>1.52013120613382</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.375691689820105</v>
@@ -40539,7 +40389,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.603057259006352</v>
+        <v>1.533919991831916</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.598597520336444</v>
@@ -40628,7 +40478,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.592627143730934</v>
+        <v>1.504349964540174</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.080830944281514</v>
@@ -40717,7 +40567,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.539179702793029</v>
+        <v>1.469864485138636</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.2073541438624</v>
@@ -40806,7 +40656,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530336824766149</v>
+        <v>1.468617968709119</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.116384206998215</v>
@@ -40895,7 +40745,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.533425905206383</v>
+        <v>1.472954119170982</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.182304739605268</v>
@@ -40984,7 +40834,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.551563237057331</v>
+        <v>1.479223997386298</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.239886955191477</v>
@@ -41073,7 +40923,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.581194175791952</v>
+        <v>1.497221905472987</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.053597746679181</v>
@@ -41162,7 +41012,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.571195053772931</v>
+        <v>1.480466277355099</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.049901456530467</v>
@@ -41251,7 +41101,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.546679407833881</v>
+        <v>1.481912049718125</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.115713621519704</v>
@@ -41340,7 +41190,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.544323558980087</v>
+        <v>1.486186025069595</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.148834742904933</v>
@@ -41429,7 +41279,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.561347400118964</v>
+        <v>1.508414359739737</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.200037386377692</v>
@@ -41518,7 +41368,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.573399539071854</v>
+        <v>1.521881830515185</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.188287411731005</v>
@@ -41607,7 +41457,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.580822008432394</v>
+        <v>1.531549423693435</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.234410003248774</v>
@@ -41696,7 +41546,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.577251116734162</v>
+        <v>1.53324872665932</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.2681924230371</v>
@@ -41785,7 +41635,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.568059658895889</v>
+        <v>1.531811318790838</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.241706777760989</v>
@@ -41874,7 +41724,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.581436285475842</v>
+        <v>1.554765299977449</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.230419215238284</v>
@@ -41963,7 +41813,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.64027760914836</v>
+        <v>1.599030223982871</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.161144727589568</v>
@@ -42052,7 +41902,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.672356719861551</v>
+        <v>1.633249680927813</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.537942636557641</v>
@@ -42141,7 +41991,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.671998486624301</v>
+        <v>1.627685174988736</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.445064798156207</v>
@@ -42230,7 +42080,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.66688151076215</v>
+        <v>1.625152960094986</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.510630184178732</v>
@@ -42319,7 +42169,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.667515061168366</v>
+        <v>1.627381881409305</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.465866194603673</v>
@@ -42408,7 +42258,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.665618059098858</v>
+        <v>1.624408602259792</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.506886578984989</v>
@@ -42497,7 +42347,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.669079006092533</v>
+        <v>1.633107896290378</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.443553681184988</v>
@@ -42586,7 +42436,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.708357836772629</v>
+        <v>1.648128045265778</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.127566623304711</v>
@@ -42675,7 +42525,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.709729655712118</v>
+        <v>1.638810738021161</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.206607447331165</v>
@@ -42764,7 +42614,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.693162613947033</v>
+        <v>1.623495241387908</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.019736313986261</v>
@@ -42853,7 +42703,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.653446780363544</v>
+        <v>1.589770922034754</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.054974630950061</v>
@@ -42942,7 +42792,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.651288701128735</v>
+        <v>1.581356688548535</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.578692788128276</v>
@@ -43031,7 +42881,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.669368114424764</v>
+        <v>1.589486241957383</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.814979143767386</v>
@@ -43120,7 +42970,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.684761773453444</v>
+        <v>1.594719644731291</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.01166463686678</v>
@@ -43209,7 +43059,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.665216674145072</v>
+        <v>1.583009633468787</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.853386889786119</v>
@@ -43298,7 +43148,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.655536159219704</v>
+        <v>1.579705002930773</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.758713878514671</v>
@@ -43387,7 +43237,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.653228945390953</v>
+        <v>1.576228180997626</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.951215175526711</v>
